--- a/medicine/Psychotrope/Komagataeibacter/Komagataeibacter.xlsx
+++ b/medicine/Psychotrope/Komagataeibacter/Komagataeibacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Komagataeibacter est l'un des genres de bactéries acétiques[1]. Il est décrit en 2012 par Yamada et al[2],[3]. Il regroupe 19 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Komagataeibacter est l'un des genres de bactéries acétiques. Il est décrit en 2012 par Yamada et al,. Il regroupe 19 espèces.
 L'espèce type est Komagataeibacter xylinus.
 </t>
         </is>
@@ -512,23 +524,25 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les espèces attribuées au genre Komagataeibacter, on identifie en 2022[1],[4]
-Komagataeibacter cocois Liu et al. 2018[5]
-Komagataeibacter diospyri Naloka et al. 2020[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parmi les espèces attribuées au genre Komagataeibacter, on identifie en 2022,
+Komagataeibacter cocois Liu et al. 2018
+Komagataeibacter diospyri Naloka et al. 2020
 Komagataeibacter europaeus (Sievers et al. 1992) Yamada et al. 2013
 Komagataeibacter hansenii (Gosselé et al. 1983) Yamada et al. 2013
 Komagataeibacter intermedius (Boesch et al. 1998) Yamada et al. 2013
-Komagataeibacter kakiaceti (Iino et al. 2012) Yamada 2014[7]
+Komagataeibacter kakiaceti (Iino et al. 2012) Yamada 2014
 Komagataeibacter kombuchae (Dutta and Gachhui 2007) Yamada et al. 2013
-Komagataeibacter maltaceti (Slapšak et al. 2013) Yamada 2014[7]
-Komagataeibacter medellinensis (Castro et al. 2013) Yamada 2014[7]
+Komagataeibacter maltaceti (Slapšak et al. 2013) Yamada 2014
+Komagataeibacter medellinensis (Castro et al. 2013) Yamada 2014
 Komagataeibacter melaceti Marič et al. 2020
 Komagataeibacter melomenusus Marič et al. 2020
 Komagataeibacter nataicola (Lisdiyanti et al. 2006) Yamada et al. 2013
 Komagataeibacter oboediens (Sokollek et al. 1998) Yamada et al. 2013
-Komagataeibacter pomaceti Škraban et al. 2019[8]
+Komagataeibacter pomaceti Škraban et al. 2019
 Komagataeibacter rhaeticus (Dellaglio et al. 2005) Yamada et al. 2013
 Komagataeibacter saccharivorans (Lisdiyanti et al. 2006) Yamada et al. 2013
 Komagataeibacter sucrofermentans (Toyosaki et al. 1996) Yamada et al. 2013
